--- a/data/freshwater/raw/dt_wq_freshwater_metadata.xlsx
+++ b/data/freshwater/raw/dt_wq_freshwater_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\GitHub\spatial-analyses\data\02. dry_tropics\dt_water-quality_freshwater\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\GitHub\RcWaterQuality\data\freshwater\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945256C1-1B4C-43CB-AE2E-7BA720753246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79965692-3866-4482-B109-F13C4D22DC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF71D581-F6B3-4658-B4B9-A43EB1317458}"/>
   </bookViews>
@@ -1352,16 +1352,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1997,48 +1997,48 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -2051,165 +2051,165 @@
       <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2219,220 +2219,214 @@
       <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A18:W18"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A3:B3"/>
@@ -2449,6 +2443,12 @@
     <mergeCell ref="A22:Z22"/>
     <mergeCell ref="A23:T23"/>
     <mergeCell ref="A14:P14"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A18:W18"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="A16:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9AC74A-C08C-4D4E-88DB-FD88E774A295}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4429,7 +4429,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A16"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5670,6 +5670,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a04b7680-e269-4f87-b21c-839602379be9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010006C5C85E62C9C340B5A396AF3BBA3C1C" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d80209cfee3b3c18b014362fba9a8cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693" xmlns:ns3="a04b7680-e269-4f87-b21c-839602379be9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="38b1a57fd49bf8fbbd210428ff2c9c12" ns2:_="" ns3:_="">
     <xsd:import namespace="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
@@ -5880,27 +5900,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a04b7680-e269-4f87-b21c-839602379be9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DE941F-A6BB-409F-B0E0-AE0C5AA57E5C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a04b7680-e269-4f87-b21c-839602379be9"/>
+    <ds:schemaRef ds:uri="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B06202-1905-47FE-AD57-DA00C513E2FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5917,23 +5936,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20DE941F-A6BB-409F-B0E0-AE0C5AA57E5C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a04b7680-e269-4f87-b21c-839602379be9"/>
-    <ds:schemaRef ds:uri="f871ce7c-31cb-4f48-8d8c-60ea4a8c1693"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B81E00C-E901-4669-ABDF-81BBA731F4AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>